--- a/data/11/weather_diff_test.xlsx
+++ b/data/11/weather_diff_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seungmi/workspace/studying/bigcon_mmmz/master/data/11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6690501-51BD-9A49-A636-4695BB74B2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A8F41A-D1A2-6945-939C-40E498C49C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="340" windowWidth="15960" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12840" yWindow="0" windowWidth="15960" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - weather_test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ymd</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
   </si>
 </sst>
 </file>
@@ -1492,10 +1495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1939,6 +1942,20 @@
         <v>4.7</v>
       </c>
     </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
